--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模版!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模版!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
-  <si>
-    <t>日期</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+  <si>
+    <t>创建时间</t>
   </si>
   <si>
     <t>资源类型</t>
@@ -37,6 +37,9 @@
     <t>资源项目</t>
   </si>
   <si>
+    <t>行业类别</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -77,6 +80,12 @@
   </si>
   <si>
     <t>预约时间</t>
+  </si>
+  <si>
+    <t>账户名称</t>
+  </si>
+  <si>
+    <t>url地址</t>
   </si>
 </sst>
 </file>
@@ -89,7 +98,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,15 +134,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -148,6 +174,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -163,65 +241,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -229,47 +248,36 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,14 +296,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,13 +318,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,91 +450,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,73 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +517,63 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,32 +602,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,203 +627,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +805,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,12 +1174,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.399975585192419"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U$1:U$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1189,21 +1188,23 @@
     <col min="2" max="3" width="8.83333333333333" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.83333333333333" style="3"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.8333333333333" style="3" customWidth="1"/>
-    <col min="8" max="9" width="11.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="11" width="10.6666666666667" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.66666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.1666666666667" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.1666666666667" style="3" customWidth="1"/>
-    <col min="17" max="17" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.1666666666667" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.1666666666667" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="8.83333333333333" style="4"/>
+    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.8333333333333" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="11" max="12" width="10.6666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.66666666666667" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.1666666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.1666666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.1666666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.1666666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="4" customWidth="1"/>
+    <col min="23" max="23" width="19.3333333333333" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="8.83333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1222,47 +1223,56 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -134,9 +134,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,88 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -240,6 +226,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -249,41 +284,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -318,55 +318,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,121 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,24 +553,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +576,39 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,41 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,7 +647,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,130 +656,130 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1184,7 +1184,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.83333333333333" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.83333333333333" style="3"/>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -143,7 +143,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,16 +165,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,12 +219,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -196,7 +235,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -204,23 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,30 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,22 +289,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -288,14 +296,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -318,181 +318,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,17 +521,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,35 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,32 +607,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,157 +635,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +797,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1176,10 +1179,10 @@
   </sheetPr>
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U$1:U$1048576"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W$1:W$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1194,84 +1197,85 @@
     <col min="11" max="12" width="10.6666666666667" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.66666666666667" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.1666666666667" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.83333333333333" style="4"/>
     <col min="17" max="17" width="17.1666666666667" style="3" customWidth="1"/>
     <col min="18" max="18" width="16.3333333333333" style="2" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="3" customWidth="1"/>
     <col min="20" max="20" width="10.1666666666667" style="3" customWidth="1"/>
     <col min="21" max="21" width="12.1666666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="14.5" style="4" customWidth="1"/>
-    <col min="23" max="23" width="19.3333333333333" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="8.83333333333333" style="4"/>
+    <col min="22" max="22" width="14.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="8.83333333333333" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -94,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -134,16 +134,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,6 +150,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF800080"/>
@@ -166,33 +166,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -204,91 +220,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -296,6 +231,71 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -318,19 +318,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,13 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,31 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,73 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,26 +517,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,7 +549,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +587,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -627,6 +616,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,153 +635,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
   </sheetPr>
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="W1" sqref="W$1:W$1048576"/>
@@ -1187,7 +1187,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.83333333333333" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.83333333333333" style="3"/>
@@ -1199,12 +1199,12 @@
     <col min="14" max="14" width="16.1666666666667" style="3" customWidth="1"/>
     <col min="15" max="16" width="8.83333333333333" style="4"/>
     <col min="17" max="17" width="17.1666666666667" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.1666666666667" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.1666666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="14.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.25" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16.625" style="3" customWidth="1"/>
     <col min="24" max="16384" width="8.83333333333333" style="5"/>
   </cols>
   <sheetData>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -7,19 +7,21 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="模版" sheetId="7" r:id="rId1"/>
+    <sheet name="非优化类" sheetId="10" r:id="rId1"/>
+    <sheet name="优化类" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模版!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">非优化类!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">优化类!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
-  <si>
-    <t>创建时间</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>资源类型</t>
@@ -67,7 +69,7 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>地址</t>
+    <t>开店区域</t>
   </si>
   <si>
     <t>留言时间</t>
@@ -79,13 +81,13 @@
     <t>搜索词</t>
   </si>
   <si>
-    <t>预约时间</t>
+    <t>预约回访时间</t>
+  </si>
+  <si>
+    <t>url地址</t>
   </si>
   <si>
     <t>账户名称</t>
-  </si>
-  <si>
-    <t>url地址</t>
   </si>
 </sst>
 </file>
@@ -93,12 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +137,118 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -150,77 +263,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,73 +311,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,61 +327,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,19 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,72 +513,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -521,17 +542,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,15 +570,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -565,6 +586,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,39 +631,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -635,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,140 +659,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,9 +810,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -811,6 +820,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,19 +1187,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor theme="5" tint="0.399975585192419"/>
+    <tabColor theme="5" tint="0.399945066682943"/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W$1:W$1048576"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.83333333333333" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.83333333333333" style="3"/>
@@ -1197,40 +1209,39 @@
     <col min="11" max="12" width="10.6666666666667" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.66666666666667" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.1666666666667" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.83333333333333" style="4"/>
     <col min="17" max="17" width="17.1666666666667" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.25" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="16.625" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="8.83333333333333" style="5"/>
+    <col min="18" max="18" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.1666666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.1666666666667" style="4" customWidth="1"/>
+    <col min="22" max="22" width="19.3333333333333" style="4" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="8.83333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -1260,7 +1271,7 @@
       <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="12" t="s">
@@ -1269,7 +1280,7 @@
       <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="12" t="s">
@@ -1279,8 +1290,130 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" customHeight="1" spans="2:6">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"在线,留言,免电"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="5" tint="0.399945066682943"/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
+    <col min="2" max="4" width="8.83333333333333" style="3"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.8333333333333" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="10" width="10.6666666666667" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.66666666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.1666666666667" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.1666666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.1666666666667" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.1666666666667" style="4" customWidth="1"/>
+    <col min="20" max="20" width="19.3333333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="8.83333333333333" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="非优化类" sheetId="10" r:id="rId1"/>
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -144,14 +144,80 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,12 +225,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -174,34 +241,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -218,97 +279,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -333,55 +333,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,19 +447,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,103 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,35 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,26 +572,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,11 +624,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,19 +659,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,124 +680,124 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +809,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1189,15 +1192,15 @@
   <sheetPr>
     <tabColor theme="5" tint="0.399945066682943"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.83333333333333" style="3"/>
@@ -1209,93 +1212,87 @@
     <col min="11" max="12" width="10.6666666666667" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.66666666666667" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.1666666666667" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.83333333333333" style="4"/>
     <col min="17" max="17" width="17.1666666666667" style="3" customWidth="1"/>
     <col min="18" max="18" width="16.3333333333333" style="2" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="3" customWidth="1"/>
     <col min="20" max="20" width="10.1666666666667" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.1666666666667" style="4" customWidth="1"/>
-    <col min="22" max="22" width="19.3333333333333" style="4" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="8.83333333333333" style="4"/>
+    <col min="21" max="21" width="12.1666666666667" style="5" customWidth="1"/>
+    <col min="22" max="22" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="8.83333333333333" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:6">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1314,15 +1311,15 @@
   <sheetPr>
     <tabColor theme="5" tint="0.399945066682943"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
     <col min="2" max="4" width="8.83333333333333" style="3"/>
@@ -1332,85 +1329,81 @@
     <col min="9" max="10" width="10.6666666666667" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.66666666666667" style="3" customWidth="1"/>
     <col min="12" max="12" width="16.1666666666667" style="3" customWidth="1"/>
+    <col min="13" max="14" width="8.83333333333333" style="4"/>
     <col min="15" max="15" width="17.1666666666667" style="3" customWidth="1"/>
     <col min="16" max="16" width="16.3333333333333" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="3" customWidth="1"/>
     <col min="18" max="18" width="10.1666666666667" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.1666666666667" style="4" customWidth="1"/>
-    <col min="20" max="20" width="19.3333333333333" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.5" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="8.83333333333333" style="4"/>
+    <col min="19" max="19" width="12.1666666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.83333333333333" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:4">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -142,48 +142,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,55 +185,61 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,61 +253,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -333,25 +333,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,19 +381,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,31 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,97 +465,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,32 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,20 +568,50 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,16 +635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,141 +659,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,10 +1194,10 @@
   </sheetPr>
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1217,7 +1217,7 @@
     <col min="18" max="18" width="16.3333333333333" style="2" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="3" customWidth="1"/>
     <col min="20" max="20" width="10.1666666666667" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.1666666666667" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.1666666666667" style="2" customWidth="1"/>
     <col min="22" max="22" width="19.3333333333333" style="3" customWidth="1"/>
     <col min="23" max="23" width="14.5" style="3" customWidth="1"/>
     <col min="24" max="16384" width="8.83333333333333" style="5"/>
@@ -1284,7 +1284,7 @@
       <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="13" t="s">
@@ -1316,7 +1316,7 @@
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="非优化类" sheetId="10" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">非优化类!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">优化类!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">优化类!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -36,7 +36,7 @@
     <t>媒介</t>
   </si>
   <si>
-    <t>资源项目</t>
+    <t>资源项目(项目名称)</t>
   </si>
   <si>
     <t>行业类别</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>账户名称</t>
+  </si>
+  <si>
+    <t>项目名称</t>
   </si>
 </sst>
 </file>
@@ -95,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -143,12 +146,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -157,12 +214,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -172,7 +243,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -185,61 +256,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,54 +299,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,187 +336,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,28 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +584,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -601,17 +617,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,15 +642,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,141 +662,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,10 +1197,10 @@
   </sheetPr>
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1206,7 +1209,8 @@
     <col min="2" max="3" width="8.83333333333333" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.83333333333333" style="3"/>
-    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.8333333333333" style="3" customWidth="1"/>
     <col min="9" max="10" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="11" max="12" width="10.6666666666667" style="3" customWidth="1"/>
@@ -1311,36 +1315,37 @@
   <sheetPr>
     <tabColor theme="5" tint="0.399945066682943"/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
     <col min="2" max="4" width="8.83333333333333" style="3"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.8333333333333" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.6666666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.66666666666667" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.1666666666667" style="3" customWidth="1"/>
-    <col min="13" max="14" width="8.83333333333333" style="4"/>
-    <col min="15" max="15" width="17.1666666666667" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.1666666666667" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.1666666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.3333333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14.5" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.83333333333333" style="5"/>
+    <col min="5" max="5" width="12.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.8333333333333" style="3" customWidth="1"/>
+    <col min="8" max="9" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="10" max="11" width="10.6666666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.66666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.1666666666667" style="3" customWidth="1"/>
+    <col min="14" max="15" width="8.83333333333333" style="4"/>
+    <col min="16" max="16" width="17.1666666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.1666666666667" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.1666666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.83333333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1353,55 +1358,58 @@
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="非优化类" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>媒介</t>
   </si>
   <si>
-    <t>资源项目(项目名称)</t>
+    <t>资源项目</t>
   </si>
   <si>
     <t>行业类别</t>
@@ -146,52 +146,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,38 +183,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,33 +248,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,25 +293,25 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -336,19 +336,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,163 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,30 +541,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,20 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +615,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,43 +662,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -707,96 +707,96 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,10 +1197,10 @@
   </sheetPr>
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1209,7 +1209,7 @@
     <col min="2" max="3" width="8.83333333333333" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.83333333333333" style="3"/>
-    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.8333333333333" style="3" customWidth="1"/>
     <col min="9" max="10" width="11.6666666666667" style="3" customWidth="1"/>
@@ -1317,7 +1317,7 @@
   </sheetPr>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,30 +140,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -171,20 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,6 +188,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -203,10 +232,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -219,7 +258,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,6 +280,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -240,84 +302,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,49 +324,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,133 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,20 +529,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +547,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,7 +593,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,17 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,156 +638,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,12 +816,12 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,7 +831,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,10 +1188,10 @@
   </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1249,7 +1229,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1261,10 +1241,10 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
@@ -1288,16 +1268,16 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="12" t="s">
@@ -1306,10 +1286,10 @@
       <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="13" t="s">

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -140,21 +140,61 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -169,14 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,57 +217,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,15 +246,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -280,19 +275,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -324,49 +324,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,127 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,11 +527,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,57 +590,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +618,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,140 +653,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,7 +1191,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1300,6 +1300,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="手机号最多输入30位" sqref="L1 L2:L1048576">
+      <formula1>30</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -140,6 +140,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -147,16 +186,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -170,8 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -179,46 +256,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -236,57 +277,16 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -324,19 +324,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +372,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,25 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,73 +480,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -544,29 +568,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,7 +609,18 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,36 +633,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,139 +653,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1191,7 +1191,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1300,8 +1300,11 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="手机号最多输入30位" sqref="L1 L2:L1048576">
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="手机号最多输入30位" sqref="L1 L2 L3:L1048576">
+      <formula1>30</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="手机号最多输入30位" sqref="I1:I2 I3:I1048576">
       <formula1>30</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/excel-templates/importClue.xlsx
+++ b/src/main/resources/excel-templates/importClue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>搜索词</t>
+  </si>
+  <si>
+    <t>词根</t>
   </si>
   <si>
     <t>行业类别</t>
@@ -140,6 +143,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -148,32 +233,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,109 +267,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -295,6 +275,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -324,19 +327,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,25 +399,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +459,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,103 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +534,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,41 +569,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,7 +597,31 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,15 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,140 +656,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,12 +1189,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.399975585192419"/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1211,18 +1214,18 @@
     <col min="14" max="14" width="21.8333333333333" style="3" customWidth="1"/>
     <col min="15" max="15" width="28" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.1666666666667" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.83333333333333" style="3"/>
-    <col min="19" max="19" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="20" max="20" width="8.83333333333333" style="3"/>
-    <col min="21" max="21" width="12.8333333333333" style="2" customWidth="1"/>
-    <col min="22" max="23" width="8.83333333333333" style="3"/>
-    <col min="24" max="24" width="8.83333333333333" style="4"/>
-    <col min="25" max="25" width="8.83333333333333" style="3"/>
-    <col min="26" max="16384" width="8.83333333333333" style="5"/>
+    <col min="17" max="18" width="10.1666666666667" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.83333333333333" style="3"/>
+    <col min="20" max="20" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="8.83333333333333" style="3"/>
+    <col min="22" max="22" width="12.8333333333333" style="2" customWidth="1"/>
+    <col min="23" max="24" width="8.83333333333333" style="3"/>
+    <col min="25" max="25" width="8.83333333333333" style="4"/>
+    <col min="26" max="26" width="8.83333333333333" style="3"/>
+    <col min="27" max="16384" width="8.83333333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:26">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1280,31 +1283,31 @@
       <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="手机号最多输入30位" sqref="L1 L2 L3:L1048576">
-      <formula1>30</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="手机号最多输入30位" sqref="I1:I2 I3:I1048576">
+  <dataValidations count="1">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="手机号最多输入30位" sqref="L1 L2 I1:I2 I3:I1048576 L3:L1048576">
       <formula1>30</formula1>
     </dataValidation>
   </dataValidations>
